--- a/biology/Médecine/Certification_des_hébergeurs_de_données_de_santé/Certification_des_hébergeurs_de_données_de_santé.xlsx
+++ b/biology/Médecine/Certification_des_hébergeurs_de_données_de_santé/Certification_des_hébergeurs_de_données_de_santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Certification_des_h%C3%A9bergeurs_de_donn%C3%A9es_de_sant%C3%A9</t>
+          <t>Certification_des_hébergeurs_de_données_de_santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La certification des hébergeurs de données de santé a pour objectif principal d'assurer la qualité de service des hébergeurs de santé. Elle est obligatoire pour les hébergeurs de données de santé[1]. Le certificat est délivré pour une durée de 3 ans et chaque année un audit de surveillance est réalisé[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La certification des hébergeurs de données de santé a pour objectif principal d'assurer la qualité de service des hébergeurs de santé. Elle est obligatoire pour les hébergeurs de données de santé. Le certificat est délivré pour une durée de 3 ans et chaque année un audit de surveillance est réalisé.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Certification_des_h%C3%A9bergeurs_de_donn%C3%A9es_de_sant%C3%A9</t>
+          <t>Certification_des_hébergeurs_de_données_de_santé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis le 1er avril 2018[3], l'agrément délivré par l'ASIP-Santé (ancienne Agence du numérique en santé) disparait progressivement au profit de la certification HDS. Début 2019, les hébergeurs obtiennent les premières certifications HDS[4]. 
-Plus de 200 hébergeurs ont été certifiés entre 2018 et 2022[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis le 1er avril 2018, l'agrément délivré par l'ASIP-Santé (ancienne Agence du numérique en santé) disparait progressivement au profit de la certification HDS. Début 2019, les hébergeurs obtiennent les premières certifications HDS. 
+Plus de 200 hébergeurs ont été certifiés entre 2018 et 2022.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Certification_des_h%C3%A9bergeurs_de_donn%C3%A9es_de_sant%C3%A9</t>
+          <t>Certification_des_hébergeurs_de_données_de_santé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Procédure de certification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après le dépôt du dossier auprès d'un organisme accrédité[6] (COFRAC ou équivalent), un double audit est réalisé. Un premier audit documentaire, suivi d'un audit sur site[2]. En cas de non-conformité sur certains aspects de l'audit sur site, l'hébergeur dispose d'un délai de trois mois pour modifier les éléments non-conformes.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après le dépôt du dossier auprès d'un organisme accrédité (COFRAC ou équivalent), un double audit est réalisé. Un premier audit documentaire, suivi d'un audit sur site. En cas de non-conformité sur certains aspects de l'audit sur site, l'hébergeur dispose d'un délai de trois mois pour modifier les éléments non-conformes.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Certification_des_h%C3%A9bergeurs_de_donn%C3%A9es_de_sant%C3%A9</t>
+          <t>Certification_des_hébergeurs_de_données_de_santé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Texte de loi</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>« Toute personne physique ou morale qui héberge des données de santé à caractère personnel recueillies à l’occasion d’activités de prévention, de diagnostic, de soins ou de suivi médico-social pour le compte de personnes physiques ou morales à l'origine de la production ou du recueil de ces données ou pour le compte du patient lui-même, doit être agréée ou certifiée à cet effet. »
-L.1111-8 du code de la santé publique[7], modifié par la loi no 2016-41 du 26 janvier 2016[8].</t>
+L.1111-8 du code de la santé publique, modifié par la loi no 2016-41 du 26 janvier 2016.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Certification_des_h%C3%A9bergeurs_de_donn%C3%A9es_de_sant%C3%A9</t>
+          <t>Certification_des_hébergeurs_de_données_de_santé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Exceptions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les hôpitaux sont dispensés d'obtenir la certification, à condition qu'ils hébergent leurs données localement, c'est-à-dire qu'ils ne font pas appel à un prestataire externe pour stocker ou sauvegarder ces données, sauf si ce prestataire est lui-même certifié[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hôpitaux sont dispensés d'obtenir la certification, à condition qu'ils hébergent leurs données localement, c'est-à-dire qu'ils ne font pas appel à un prestataire externe pour stocker ou sauvegarder ces données, sauf si ce prestataire est lui-même certifié.
 </t>
         </is>
       </c>
